--- a/biology/Zoologie/Alcyonacea/Alcyonacea.xlsx
+++ b/biology/Zoologie/Alcyonacea/Alcyonacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Alcyonacea sont un ordre de cnidaires anthozoaires de la sous-classe des octocorallia. Formant des colonies constituées de petits polypes, ils se distinguent des coraux par leur plan d'organisation et le fait qu'ils n'ont généralement pas besoin de lumière pour leur croissance.
@@ -512,11 +524,13 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces animaux sont des cnidaires, cousins des coraux : comme eux, il s'agit de colonies clonales de petits polypes, qui construisent un squelette commun, qui peut être dur (en carbonate de calcium : ce sont les « gorgones ») ou mou (protéique : ce sont les « coraux mous »). On distingue cependant les alcyonaires au fait que leurs polypes ont 8 bras (ou un multiple de 8), contrairement aux coraux « vrais » (Scleractinia ou Madréporaires), qui en ont 6 (ou un multiple de 6). Les alcyonnaires ne devraient donc pas être appelés « coraux », même si de nombreux noms vernaculaires sont ambigus : le « corail rouge » est par exemple une gorgone. 
 Ces animaux n'ont pas (ou peu) de zooxanthelles, et n'ont donc en général pas besoin de lumière pour leur croissance : en conséquence, on les trouvera en abondance dans la pénombre (tombants, grottes, déclivités) ainsi qu'en grande profondeur. 
-Certaines espèces peuvent atteindre de grandes tailles et mesurer plus d'1 mètre de haut[1]. 
+Certaines espèces peuvent atteindre de grandes tailles et mesurer plus d'1 mètre de haut. 
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Classification et liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différentes bases de données taxinomiques ne donnent pas le même contenu pour Alcyonacea car certaines comme ITIS ne reconnaissent pas l'ordre Gorgonacea et placent dans Alcyonacea les familles que d'autres, comme ADW, placent dans Gorgonacea.
 			Alcyonium acaule, un Alcyoniidae
